--- a/data/data_merged_archive.xlsx
+++ b/data/data_merged_archive.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Lehner\Desktop\Repos\Paper\MDE4DTs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05316E3B-87AF-4CEE-A71E-09965FCD635B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C4BE75-C7E2-4F0B-90D0-1BF5EA99DC8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_merged" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_merged!$A$1:$AJ$274</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -3198,7 +3211,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:AJ274" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:AJ274" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <autoFilter ref="A1:AJ274" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Integration of SysML Models in a 3D Environment for Virtual Testing and Validation"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AJ249">
     <sortCondition ref="B2:B249"/>
     <sortCondition ref="A2:A249"/>
@@ -3544,26 +3563,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A246" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B251" sqref="B251"/>
+      <selection pane="topRight" activeCell="Z274" sqref="Z274"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="2" width="138.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" customWidth="1"/>
-    <col min="4" max="4" width="111.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.140625" customWidth="1"/>
-    <col min="15" max="15" width="26.140625" customWidth="1"/>
-    <col min="16" max="16" width="16.7109375" customWidth="1"/>
-    <col min="23" max="23" width="41.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.83984375" customWidth="1"/>
+    <col min="2" max="2" width="138.83984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.41796875" customWidth="1"/>
+    <col min="4" max="4" width="111.68359375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.68359375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.15625" customWidth="1"/>
+    <col min="15" max="15" width="26.15625" customWidth="1"/>
+    <col min="16" max="16" width="16.68359375" customWidth="1"/>
+    <col min="23" max="23" width="41.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -3673,7 +3692,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>568</v>
       </c>
@@ -3681,7 +3700,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>216</v>
       </c>
@@ -3689,7 +3708,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>427</v>
       </c>
@@ -3697,7 +3716,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>568</v>
       </c>
@@ -3705,7 +3724,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="120.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" ht="120.6" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>216</v>
       </c>
@@ -3713,7 +3732,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>427</v>
       </c>
@@ -3721,7 +3740,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>427</v>
       </c>
@@ -3729,7 +3748,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -3737,7 +3756,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>568</v>
       </c>
@@ -3745,7 +3764,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>216</v>
       </c>
@@ -3753,7 +3772,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="150" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" ht="129.6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -3767,7 +3786,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>568</v>
       </c>
@@ -3820,7 +3839,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>216</v>
       </c>
@@ -3843,7 +3862,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>216</v>
       </c>
@@ -3890,7 +3909,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>216</v>
       </c>
@@ -3904,7 +3923,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>427</v>
       </c>
@@ -3918,7 +3937,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>216</v>
       </c>
@@ -3929,7 +3948,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -3967,7 +3986,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="20" spans="1:32" ht="345" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" ht="216" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>568</v>
       </c>
@@ -4020,7 +4039,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>427</v>
       </c>
@@ -4067,7 +4086,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>427</v>
       </c>
@@ -4117,7 +4136,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>216</v>
       </c>
@@ -4128,7 +4147,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -4139,7 +4158,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>568</v>
       </c>
@@ -4147,7 +4166,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>427</v>
       </c>
@@ -4158,7 +4177,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>427</v>
       </c>
@@ -4166,7 +4185,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:32" ht="195" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" ht="187.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -4177,7 +4196,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>568</v>
       </c>
@@ -4236,7 +4255,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:32" ht="315" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" ht="288" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>216</v>
       </c>
@@ -4277,7 +4296,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="31" spans="1:32" ht="90" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" ht="86.4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -4318,7 +4337,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>216</v>
       </c>
@@ -4326,7 +4345,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:32" ht="75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -4340,7 +4359,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>568</v>
       </c>
@@ -4348,7 +4367,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>216</v>
       </c>
@@ -4356,7 +4375,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -4364,7 +4383,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>568</v>
       </c>
@@ -4375,7 +4394,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>427</v>
       </c>
@@ -4386,7 +4405,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>568</v>
       </c>
@@ -4436,7 +4455,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>216</v>
       </c>
@@ -4465,7 +4484,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>216</v>
       </c>
@@ -4491,7 +4510,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="42" spans="1:32" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:32" ht="409.5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>216</v>
       </c>
@@ -4550,7 +4569,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -4588,7 +4607,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -4626,7 +4645,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>568</v>
       </c>
@@ -4637,7 +4656,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>427</v>
       </c>
@@ -4648,7 +4667,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>427</v>
       </c>
@@ -4656,7 +4675,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>42</v>
       </c>
@@ -4664,7 +4683,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>568</v>
       </c>
@@ -4714,7 +4733,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>427</v>
       </c>
@@ -4761,7 +4780,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>568</v>
       </c>
@@ -4814,7 +4833,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>42</v>
       </c>
@@ -4822,7 +4841,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>568</v>
       </c>
@@ -4830,7 +4849,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>42</v>
       </c>
@@ -4838,7 +4857,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>216</v>
       </c>
@@ -4849,7 +4868,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>42</v>
       </c>
@@ -4857,7 +4876,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>568</v>
       </c>
@@ -4910,7 +4929,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:35" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>427</v>
       </c>
@@ -4957,7 +4976,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:35" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>427</v>
       </c>
@@ -5007,7 +5026,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:35" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>568</v>
       </c>
@@ -5015,7 +5034,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>42</v>
       </c>
@@ -5023,7 +5042,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="62" spans="1:35" ht="135" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:35" ht="129.6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>568</v>
       </c>
@@ -5073,7 +5092,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:35" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>216</v>
       </c>
@@ -5132,7 +5151,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:35" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>216</v>
       </c>
@@ -5164,7 +5183,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:31" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>42</v>
       </c>
@@ -5205,7 +5224,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:31" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>42</v>
       </c>
@@ -5219,7 +5238,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:31" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>216</v>
       </c>
@@ -5230,7 +5249,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:31" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>427</v>
       </c>
@@ -5238,7 +5257,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="69" spans="1:31" ht="135" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:31" ht="115.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>42</v>
       </c>
@@ -5249,7 +5268,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:31" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>568</v>
       </c>
@@ -5257,7 +5276,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:31" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>427</v>
       </c>
@@ -5271,7 +5290,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:31" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>568</v>
       </c>
@@ -5279,7 +5298,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:31" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>427</v>
       </c>
@@ -5290,7 +5309,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:31" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>568</v>
       </c>
@@ -5298,7 +5317,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:31" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>216</v>
       </c>
@@ -5315,7 +5334,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:31" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>427</v>
       </c>
@@ -5323,7 +5342,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:31" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>568</v>
       </c>
@@ -5331,7 +5350,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:31" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>216</v>
       </c>
@@ -5339,7 +5358,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:31" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>427</v>
       </c>
@@ -5386,7 +5405,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:31" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>216</v>
       </c>
@@ -5394,7 +5413,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:33" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>42</v>
       </c>
@@ -5402,7 +5421,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:33" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>216</v>
       </c>
@@ -5449,7 +5468,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="83" spans="1:33" ht="195" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:33" ht="172.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>42</v>
       </c>
@@ -5493,7 +5512,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:33" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>216</v>
       </c>
@@ -5501,7 +5520,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:33" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>427</v>
       </c>
@@ -5512,7 +5531,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:33" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>42</v>
       </c>
@@ -5520,7 +5539,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:33" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>568</v>
       </c>
@@ -5528,7 +5547,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:33" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>427</v>
       </c>
@@ -5536,7 +5555,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:33" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>568</v>
       </c>
@@ -5544,7 +5563,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:33" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>427</v>
       </c>
@@ -5588,7 +5607,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:33" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>427</v>
       </c>
@@ -5599,7 +5618,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:33" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>42</v>
       </c>
@@ -5610,7 +5629,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:33" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>568</v>
       </c>
@@ -5666,7 +5685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:33" ht="60" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:33" ht="57.6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>42</v>
       </c>
@@ -5707,7 +5726,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:33" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>216</v>
       </c>
@@ -5718,7 +5737,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:33" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>42</v>
       </c>
@@ -5729,7 +5748,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>568</v>
       </c>
@@ -5782,7 +5801,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="98" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>216</v>
       </c>
@@ -5841,7 +5860,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="99" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>216</v>
       </c>
@@ -5876,7 +5895,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="100" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>427</v>
       </c>
@@ -5914,7 +5933,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="101" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>427</v>
       </c>
@@ -5952,7 +5971,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="102" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>427</v>
       </c>
@@ -5990,7 +6009,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="103" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>427</v>
       </c>
@@ -6028,7 +6047,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="104" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>427</v>
       </c>
@@ -6063,7 +6082,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="105" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>427</v>
       </c>
@@ -6098,7 +6117,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="106" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>427</v>
       </c>
@@ -6136,7 +6155,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="107" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>568</v>
       </c>
@@ -6189,7 +6208,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="108" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
         <v>216</v>
       </c>
@@ -6242,7 +6261,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="109" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
         <v>216</v>
       </c>
@@ -6265,7 +6284,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="110" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
         <v>216</v>
       </c>
@@ -6279,7 +6298,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="111" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
         <v>427</v>
       </c>
@@ -6326,7 +6345,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="112" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
         <v>427</v>
       </c>
@@ -6370,7 +6389,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="113" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:35" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
         <v>427</v>
       </c>
@@ -6414,7 +6433,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="114" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:35" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
         <v>216</v>
       </c>
@@ -6455,7 +6474,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="115" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:35" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
         <v>427</v>
       </c>
@@ -6487,7 +6506,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="116" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:35" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
         <v>42</v>
       </c>
@@ -6531,7 +6550,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="117" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:35" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
         <v>568</v>
       </c>
@@ -6542,7 +6561,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="118" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:35" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
         <v>427</v>
       </c>
@@ -6553,7 +6572,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="119" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:35" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
         <v>216</v>
       </c>
@@ -6564,7 +6583,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="120" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:35" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
         <v>42</v>
       </c>
@@ -6575,7 +6594,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="121" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:35" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
         <v>568</v>
       </c>
@@ -6622,7 +6641,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="122" spans="1:35" ht="360" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:35" ht="302.39999999999998" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
         <v>42</v>
       </c>
@@ -6672,7 +6691,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="123" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:35" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
         <v>216</v>
       </c>
@@ -6683,7 +6702,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="124" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:35" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
         <v>42</v>
       </c>
@@ -6694,7 +6713,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="125" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:35" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
         <v>568</v>
       </c>
@@ -6702,7 +6721,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="126" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:35" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
         <v>216</v>
       </c>
@@ -6710,7 +6729,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="127" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:35" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
         <v>427</v>
       </c>
@@ -6721,7 +6740,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="128" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:35" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
         <v>216</v>
       </c>
@@ -6753,7 +6772,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="129" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:35" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
         <v>216</v>
       </c>
@@ -6794,7 +6813,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="130" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:35" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
         <v>216</v>
       </c>
@@ -6808,7 +6827,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="131" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:35" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
         <v>42</v>
       </c>
@@ -6846,7 +6865,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="132" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:35" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
         <v>568</v>
       </c>
@@ -6854,7 +6873,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="133" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:35" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
         <v>427</v>
       </c>
@@ -6862,7 +6881,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="134" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:35" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
         <v>568</v>
       </c>
@@ -6870,7 +6889,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="135" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:35" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
         <v>216</v>
       </c>
@@ -6878,7 +6897,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="136" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:35" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
         <v>427</v>
       </c>
@@ -6886,7 +6905,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="137" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:35" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
         <v>568</v>
       </c>
@@ -6924,7 +6943,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="138" spans="1:35" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:35" ht="409.5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
         <v>216</v>
       </c>
@@ -6977,7 +6996,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="139" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:35" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
         <v>216</v>
       </c>
@@ -6988,7 +7007,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="140" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:35" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
         <v>427</v>
       </c>
@@ -6996,7 +7015,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="141" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:35" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="3" t="s">
         <v>568</v>
       </c>
@@ -7052,7 +7071,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="142" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:35" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
         <v>216</v>
       </c>
@@ -7066,7 +7085,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="143" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:35" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
         <v>427</v>
       </c>
@@ -7116,7 +7135,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="144" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:35" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
         <v>427</v>
       </c>
@@ -7166,7 +7185,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="145" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
         <v>427</v>
       </c>
@@ -7213,7 +7232,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="146" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
         <v>427</v>
       </c>
@@ -7263,7 +7282,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="147" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
         <v>427</v>
       </c>
@@ -7307,7 +7326,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="148" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
         <v>700</v>
       </c>
@@ -7351,7 +7370,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="149" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
         <v>700</v>
       </c>
@@ -7380,7 +7399,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="150" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
         <v>700</v>
       </c>
@@ -7409,7 +7428,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="151" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
         <v>700</v>
       </c>
@@ -7438,7 +7457,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="152" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
         <v>700</v>
       </c>
@@ -7467,7 +7486,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="153" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B153" t="s">
         <v>325</v>
       </c>
@@ -7490,7 +7509,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="154" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:32" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="3" t="s">
         <v>568</v>
       </c>
@@ -7546,7 +7565,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="155" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
         <v>216</v>
       </c>
@@ -7590,7 +7609,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="156" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
         <v>216</v>
       </c>
@@ -7613,7 +7632,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="157" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
         <v>216</v>
       </c>
@@ -7639,7 +7658,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="158" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
         <v>216</v>
       </c>
@@ -7653,7 +7672,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="159" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="s">
         <v>427</v>
       </c>
@@ -7685,7 +7704,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="160" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
         <v>427</v>
       </c>
@@ -7717,7 +7736,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="161" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
         <v>427</v>
       </c>
@@ -7749,7 +7768,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="162" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
         <v>427</v>
       </c>
@@ -7781,7 +7800,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="163" spans="1:32" ht="120" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:32" ht="100.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="s">
         <v>42</v>
       </c>
@@ -7825,7 +7844,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="164" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="s">
         <v>42</v>
       </c>
@@ -7863,7 +7882,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="165" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="s">
         <v>42</v>
       </c>
@@ -7889,7 +7908,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="166" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" t="s">
         <v>42</v>
       </c>
@@ -7915,7 +7934,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="167" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="s">
         <v>42</v>
       </c>
@@ -7938,7 +7957,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="168" spans="1:32" ht="105" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:32" ht="86.4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" t="s">
         <v>700</v>
       </c>
@@ -7982,7 +8001,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="169" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" t="s">
         <v>700</v>
       </c>
@@ -8017,7 +8036,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="170" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="s">
         <v>700</v>
       </c>
@@ -8052,7 +8071,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="171" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="s">
         <v>700</v>
       </c>
@@ -8084,7 +8103,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="172" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" t="s">
         <v>700</v>
       </c>
@@ -8116,7 +8135,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="173" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" t="s">
         <v>427</v>
       </c>
@@ -8169,7 +8188,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="174" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" t="s">
         <v>427</v>
       </c>
@@ -8222,7 +8241,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="175" spans="1:32" ht="88.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:32" ht="88.15" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" t="s">
         <v>42</v>
       </c>
@@ -8275,7 +8294,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="176" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" t="s">
         <v>427</v>
       </c>
@@ -8283,7 +8302,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="177" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:35" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" t="s">
         <v>42</v>
       </c>
@@ -8291,7 +8310,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="178" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:35" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" t="s">
         <v>568</v>
       </c>
@@ -8299,7 +8318,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="179" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:35" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" t="s">
         <v>216</v>
       </c>
@@ -8307,7 +8326,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="180" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:35" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" t="s">
         <v>427</v>
       </c>
@@ -8315,7 +8334,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="181" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:35" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" t="s">
         <v>568</v>
       </c>
@@ -8323,7 +8342,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="182" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:35" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" t="s">
         <v>216</v>
       </c>
@@ -8331,7 +8350,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="183" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:35" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" t="s">
         <v>42</v>
       </c>
@@ -8339,7 +8358,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="184" spans="1:35" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:35" ht="409.5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" t="s">
         <v>568</v>
       </c>
@@ -8383,7 +8402,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="185" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:35" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" t="s">
         <v>216</v>
       </c>
@@ -8412,7 +8431,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="186" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:35" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" t="s">
         <v>216</v>
       </c>
@@ -8447,7 +8466,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="187" spans="1:35" ht="105" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:35" ht="86.4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" t="s">
         <v>42</v>
       </c>
@@ -8470,7 +8489,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="188" spans="1:35" ht="105" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:35" ht="86.4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" t="s">
         <v>42</v>
       </c>
@@ -8505,7 +8524,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="189" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:35" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" t="s">
         <v>427</v>
       </c>
@@ -8513,7 +8532,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="190" spans="1:35" ht="75" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:35" ht="57.6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" t="s">
         <v>42</v>
       </c>
@@ -8524,7 +8543,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="191" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:35" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" t="s">
         <v>568</v>
       </c>
@@ -8532,7 +8551,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="192" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:35" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" t="s">
         <v>216</v>
       </c>
@@ -8585,7 +8604,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="193" spans="1:32" ht="60" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:32" ht="57.6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" t="s">
         <v>42</v>
       </c>
@@ -8629,7 +8648,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="194" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" t="s">
         <v>568</v>
       </c>
@@ -8676,7 +8695,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="195" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" t="s">
         <v>427</v>
       </c>
@@ -8684,7 +8703,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="196" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" t="s">
         <v>216</v>
       </c>
@@ -8695,7 +8714,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="197" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" t="s">
         <v>42</v>
       </c>
@@ -8703,7 +8722,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="198" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" t="s">
         <v>216</v>
       </c>
@@ -8711,7 +8730,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="199" spans="1:32" ht="120" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:32" ht="100.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" t="s">
         <v>42</v>
       </c>
@@ -8722,7 +8741,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="200" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" t="s">
         <v>216</v>
       </c>
@@ -8772,7 +8791,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="201" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" t="s">
         <v>216</v>
       </c>
@@ -8792,7 +8811,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="202" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" t="s">
         <v>216</v>
       </c>
@@ -8815,7 +8834,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="203" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" t="s">
         <v>216</v>
       </c>
@@ -8838,7 +8857,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="204" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" t="s">
         <v>42</v>
       </c>
@@ -8876,7 +8895,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="205" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" t="s">
         <v>42</v>
       </c>
@@ -8914,7 +8933,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="206" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" t="s">
         <v>42</v>
       </c>
@@ -8952,7 +8971,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="207" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" t="s">
         <v>42</v>
       </c>
@@ -8990,7 +9009,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="208" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" t="s">
         <v>568</v>
       </c>
@@ -8998,7 +9017,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="209" spans="1:32" ht="195" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:32" ht="172.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" t="s">
         <v>216</v>
       </c>
@@ -9048,7 +9067,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="210" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" t="s">
         <v>427</v>
       </c>
@@ -9056,7 +9075,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="211" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" t="s">
         <v>216</v>
       </c>
@@ -9064,7 +9083,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="212" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" t="s">
         <v>42</v>
       </c>
@@ -9072,7 +9091,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="213" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" t="s">
         <v>216</v>
       </c>
@@ -9080,7 +9099,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="214" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" t="s">
         <v>427</v>
       </c>
@@ -9091,7 +9110,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="215" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" t="s">
         <v>42</v>
       </c>
@@ -9102,7 +9121,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="216" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" t="s">
         <v>568</v>
       </c>
@@ -9113,7 +9132,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="217" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" t="s">
         <v>427</v>
       </c>
@@ -9121,7 +9140,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="218" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" t="s">
         <v>568</v>
       </c>
@@ -9180,7 +9199,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="219" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" t="s">
         <v>216</v>
       </c>
@@ -9191,7 +9210,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="220" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" t="s">
         <v>427</v>
       </c>
@@ -9235,7 +9254,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="221" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" t="s">
         <v>427</v>
       </c>
@@ -9279,7 +9298,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="222" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" t="s">
         <v>427</v>
       </c>
@@ -9317,7 +9336,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="223" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" t="s">
         <v>427</v>
       </c>
@@ -9355,7 +9374,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="224" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" t="s">
         <v>427</v>
       </c>
@@ -9393,7 +9412,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="225" spans="1:35" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:35" ht="388.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" t="s">
         <v>42</v>
       </c>
@@ -9443,7 +9462,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="226" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:35" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" t="s">
         <v>216</v>
       </c>
@@ -9487,7 +9506,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="227" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:35" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" t="s">
         <v>427</v>
       </c>
@@ -9498,7 +9517,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="228" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:35" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" t="s">
         <v>42</v>
       </c>
@@ -9506,7 +9525,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="229" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:35" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" t="s">
         <v>427</v>
       </c>
@@ -9514,7 +9533,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="230" spans="1:35" ht="315" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:35" ht="302.39999999999998" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" t="s">
         <v>42</v>
       </c>
@@ -9561,7 +9580,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="231" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:35" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" t="s">
         <v>427</v>
       </c>
@@ -9602,7 +9621,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="232" spans="1:35" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:35" ht="360" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" t="s">
         <v>42</v>
       </c>
@@ -9649,7 +9668,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="233" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:35" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" t="s">
         <v>568</v>
       </c>
@@ -9693,7 +9712,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="234" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:35" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" t="s">
         <v>216</v>
       </c>
@@ -9737,7 +9756,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="235" spans="1:35" ht="60" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:35" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" t="s">
         <v>42</v>
       </c>
@@ -9781,7 +9800,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="236" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:35" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" t="s">
         <v>568</v>
       </c>
@@ -9837,7 +9856,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="237" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:35" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" t="s">
         <v>216</v>
       </c>
@@ -9878,7 +9897,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="238" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:35" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" t="s">
         <v>42</v>
       </c>
@@ -9919,7 +9938,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="239" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:35" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" t="s">
         <v>42</v>
       </c>
@@ -9960,7 +9979,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="240" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:35" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" t="s">
         <v>568</v>
       </c>
@@ -9968,7 +9987,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="241" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" t="s">
         <v>427</v>
       </c>
@@ -9979,7 +9998,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="242" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" t="s">
         <v>568</v>
       </c>
@@ -9987,7 +10006,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="243" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" t="s">
         <v>216</v>
       </c>
@@ -10025,7 +10044,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="244" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" t="s">
         <v>427</v>
       </c>
@@ -10033,7 +10052,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="245" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" t="s">
         <v>216</v>
       </c>
@@ -10083,7 +10102,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="246" spans="1:32" ht="300" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:32" ht="288" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" t="s">
         <v>42</v>
       </c>
@@ -10124,7 +10143,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="247" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" t="s">
         <v>42</v>
       </c>
@@ -10138,7 +10157,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="248" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" t="s">
         <v>216</v>
       </c>
@@ -10146,7 +10165,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="249" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:32" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" t="s">
         <v>42</v>
       </c>
@@ -10154,12 +10173,12 @@
         <v>196</v>
       </c>
     </row>
-    <row r="250" spans="1:32" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:32" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="4" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="251" spans="1:32" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:32" ht="75" hidden="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A251" t="s">
         <v>568</v>
       </c>
@@ -10205,7 +10224,7 @@
       <c r="Z251" s="6"/>
       <c r="AA251" s="6"/>
     </row>
-    <row r="252" spans="1:32" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:32" ht="75" hidden="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A252" t="s">
         <v>568</v>
       </c>
@@ -10255,7 +10274,7 @@
       <c r="Z252" s="6"/>
       <c r="AA252" s="6"/>
     </row>
-    <row r="253" spans="1:32" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:32" ht="75" hidden="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A253" t="s">
         <v>568</v>
       </c>
@@ -10305,7 +10324,7 @@
       <c r="Z253" s="6"/>
       <c r="AA253" s="6"/>
     </row>
-    <row r="254" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:32" ht="14.7" hidden="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A254" t="s">
         <v>568</v>
       </c>
@@ -10340,7 +10359,7 @@
       <c r="Z254" s="6"/>
       <c r="AA254" s="6"/>
     </row>
-    <row r="255" spans="1:32" ht="141.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:32" ht="99.6" hidden="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A255" t="s">
         <v>427</v>
       </c>
@@ -10399,7 +10418,7 @@
       <c r="AB255" s="6"/>
       <c r="AC255" s="6"/>
     </row>
-    <row r="256" spans="1:32" ht="141.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:32" ht="99.6" hidden="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A256" t="s">
         <v>427</v>
       </c>
@@ -10456,7 +10475,7 @@
       <c r="AB256" s="6"/>
       <c r="AC256" s="6"/>
     </row>
-    <row r="257" spans="1:29" ht="141.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:29" ht="99.6" hidden="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A257" t="s">
         <v>427</v>
       </c>
@@ -10515,7 +10534,7 @@
       <c r="AB257" s="6"/>
       <c r="AC257" s="6"/>
     </row>
-    <row r="258" spans="1:29" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:29" ht="25.8" hidden="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A258" t="s">
         <v>427</v>
       </c>
@@ -10554,7 +10573,7 @@
       <c r="AB258" s="6"/>
       <c r="AC258" s="6"/>
     </row>
-    <row r="259" spans="1:29" ht="141.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:29" ht="111.9" hidden="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A259" t="s">
         <v>427</v>
       </c>
@@ -10615,7 +10634,7 @@
       <c r="AB259" s="6"/>
       <c r="AC259" s="6"/>
     </row>
-    <row r="260" spans="1:29" ht="141.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:29" ht="111.9" hidden="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A260" t="s">
         <v>427</v>
       </c>
@@ -10674,7 +10693,7 @@
       <c r="AB260" s="6"/>
       <c r="AC260" s="6"/>
     </row>
-    <row r="261" spans="1:29" ht="141.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:29" ht="111.9" hidden="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A261" t="s">
         <v>427</v>
       </c>
@@ -10735,7 +10754,7 @@
       <c r="AB261" s="6"/>
       <c r="AC261" s="6"/>
     </row>
-    <row r="262" spans="1:29" ht="141.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:29" ht="111.9" hidden="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A262" t="s">
         <v>427</v>
       </c>
@@ -10794,7 +10813,7 @@
       <c r="AB262" s="6"/>
       <c r="AC262" s="6"/>
     </row>
-    <row r="263" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:29" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" t="s">
         <v>216</v>
       </c>
@@ -10835,7 +10854,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="264" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:29" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" t="s">
         <v>216</v>
       </c>
@@ -10861,7 +10880,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="265" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:29" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" t="s">
         <v>216</v>
       </c>
@@ -10878,7 +10897,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="266" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:29" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" t="s">
         <v>216</v>
       </c>
@@ -10889,7 +10908,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="267" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:29" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" t="s">
         <v>216</v>
       </c>
@@ -10936,7 +10955,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="268" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:29" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" t="s">
         <v>216</v>
       </c>
@@ -10947,7 +10966,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="269" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:29" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" t="s">
         <v>216</v>
       </c>
@@ -10994,7 +11013,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="270" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:29" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" t="s">
         <v>216</v>
       </c>
@@ -11041,7 +11060,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="271" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:29" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" t="s">
         <v>216</v>
       </c>
@@ -11061,7 +11080,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="272" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:29" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" t="s">
         <v>216</v>
       </c>
@@ -11081,7 +11100,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="273" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:26" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" t="s">
         <v>216</v>
       </c>
@@ -11092,7 +11111,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="274" spans="1:26" ht="195" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:26" ht="187.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B274" t="s">
         <v>83</v>
       </c>
